--- a/biology/Zoologie/Bungarus_fasciatus/Bungarus_fasciatus.xlsx
+++ b/biology/Zoologie/Bungarus_fasciatus/Bungarus_fasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bongare fascié, Bongare annelé
-Bungarus fasciatus est une espèce de serpents de la famille des Elapidae[1]. En français il est appelé Bongare fascié, Bongare annelé ou Bungare[2].
+Bungarus fasciatus est une espèce de serpents de la famille des Elapidae. En français il est appelé Bongare fascié, Bongare annelé ou Bungare.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bongare annelé vit dans les endroits frais et humide, principalement sous les rochers et dans les souches, près de point d'eau (rizières, barrages...).
-Cette espèce se rencontre en Inde, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, au Cambodge, au Laos, au Viêt Nam, dans le sud de la Chine, en Malaisie, à Singapour, au Brunei et en Indonésie[1].
+Cette espèce se rencontre en Inde, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, au Cambodge, au Laos, au Viêt Nam, dans le sud de la Chine, en Malaisie, à Singapour, au Brunei et en Indonésie.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bungarus fasciatus a des bandes jaunes et brunes ou noires et jaunes caractéristiques. Il mesure en moyenne 1,5 mètre de long.
 Il possède une sorte de crête dorsale rigide qui lui donne une silhouette triangulaire.
@@ -578,10 +594,12 @@
           <t>Venimosité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent est extrêmement venimeux y compris pour l'homme. Comme avec les autres espèces du genre, la plupart des morsures ont lieu la nuit, dans les maisons où ces serpents pénètrent parfois, quand les gens dorment et bougent dans leur sommeil ou en faisant du rangement, marchent pieds nus, etc. Il est plus alerte et réactif pour se défendre la nuit. Quand il fait jour, ce serpent est très pacifique et en cas de danger il se cache dans un trou ou dans l'herbe et n'attaque pas.
-Son venin neurotoxique contient de la β-bungarotoxine, bloque la libération d'acétylcholine par les axones des neurones, ce qui entraine un arrêt de l'influx nerveux. Ceci a pour conséquence de paralyser des organes tels le cœur et le système respiratoire, provoquant la mort. En cas de morsure, il existe toutefois des anti-venins très efficaces[3]
+Son venin neurotoxique contient de la β-bungarotoxine, bloque la libération d'acétylcholine par les axones des neurones, ce qui entraine un arrêt de l'influx nerveux. Ceci a pour conséquence de paralyser des organes tels le cœur et le système respiratoire, provoquant la mort. En cas de morsure, il existe toutefois des anti-venins très efficaces
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle pond 10 à 15 œufs dans un trou et les petits serpents naissent environ deux mois plus tard[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond 10 à 15 œufs dans un trou et les petits serpents naissent environ deux mois plus tard.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Schneider, 1801 : Historiae Amphibiorum naturalis et literariae. Fasciculus secundus continens Crocodilos, Scincos, Chamaesauras, Boas. Pseudoboas, Elapes, Angues. Amphisbaenas et Caecilias. Frommani, Jena, p. 1-374 (texte intégral).</t>
         </is>
